--- a/excel/Format_excel_mahasiswa.xlsx
+++ b/excel/Format_excel_mahasiswa.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\ci_upload\excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\sikapta\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>NIM</t>
   </si>
@@ -38,13 +38,16 @@
     <t>Pembimbing 2</t>
   </si>
   <si>
-    <t>Judul TA</t>
-  </si>
-  <si>
     <t>No</t>
   </si>
   <si>
     <t>Kategori</t>
+  </si>
+  <si>
+    <t>Semester</t>
+  </si>
+  <si>
+    <t>Judul</t>
   </si>
 </sst>
 </file>
@@ -368,7 +371,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G1"/>
+  <dimension ref="A1:H1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="G2" sqref="G2"/>
@@ -381,12 +384,13 @@
     <col min="3" max="3" width="25.140625" customWidth="1"/>
     <col min="4" max="4" width="23.7109375" customWidth="1"/>
     <col min="5" max="5" width="24.140625" customWidth="1"/>
-    <col min="6" max="6" width="68.7109375" customWidth="1"/>
+    <col min="6" max="6" width="23.42578125" customWidth="1"/>
+    <col min="7" max="7" width="54.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -394,17 +398,20 @@
       <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>6</v>
+      <c r="G1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/excel/Format_excel_mahasiswa.xlsx
+++ b/excel/Format_excel_mahasiswa.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>NIM</t>
   </si>
@@ -48,19 +48,28 @@
   </si>
   <si>
     <t>Judul</t>
+  </si>
+  <si>
+    <t>Tempat KP</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF212529"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -83,7 +92,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -91,6 +100,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -371,10 +381,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H1"/>
+  <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -386,9 +396,11 @@
     <col min="5" max="5" width="24.140625" customWidth="1"/>
     <col min="6" max="6" width="23.42578125" customWidth="1"/>
     <col min="7" max="7" width="54.42578125" customWidth="1"/>
+    <col min="8" max="8" width="15.42578125" customWidth="1"/>
+    <col min="9" max="9" width="29" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -413,8 +425,15 @@
       <c r="H1" s="2" t="s">
         <v>5</v>
       </c>
+      <c r="I1" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="E2" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>